--- a/20_diabetes_insipidus/20_diabetes_insipidus_data.xlsx
+++ b/20_diabetes_insipidus/20_diabetes_insipidus_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,105 +498,105 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.2</v>
+      <c r="B4" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60.75" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>290</v>
-      </c>
-      <c r="C5" s="4">
-        <v>290</v>
-      </c>
-      <c r="D5" s="4">
-        <v>295</v>
-      </c>
-      <c r="E5" s="4">
-        <v>316</v>
+      <c r="B5" s="3">
+        <v>301</v>
+      </c>
+      <c r="C5" s="3">
+        <v>301</v>
+      </c>
+      <c r="D5" s="3">
+        <v>317</v>
+      </c>
+      <c r="E5" s="3">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60.75" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
         <v>1.4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
         <v>1.4</v>
       </c>
-      <c r="E6" s="4">
-        <v>8.6</v>
+      <c r="D6" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>13.4</v>
+      <c r="B7" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.1199999999999992</v>
+      <c r="B8" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>812</v>
-      </c>
-      <c r="C9" s="4">
-        <v>667</v>
-      </c>
-      <c r="D9" s="4">
-        <v>828</v>
-      </c>
-      <c r="E9" s="4">
-        <v>99</v>
+      <c r="B9" s="3">
+        <v>1152</v>
+      </c>
+      <c r="C9" s="3">
+        <v>785</v>
+      </c>
+      <c r="D9" s="3">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/20_diabetes_insipidus/20_diabetes_insipidus_data.xlsx
+++ b/20_diabetes_insipidus/20_diabetes_insipidus_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Diabetes Insipidus</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Urine [Osm](mOsm/L)</t>
+  </si>
+  <si>
+    <t>Cannot be completed in HumMod. No way to turn off ADH formation</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>HumMod</t>
   </si>
 </sst>
 </file>
@@ -70,12 +79,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -138,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -152,11 +167,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,21 +476,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -481,9 +514,24 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,8 +544,21 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45.75" thickBot="1">
+      <c r="G3" s="7"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -513,8 +574,15 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60.75" thickBot="1">
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="60.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -530,8 +598,15 @@
       <c r="E5" s="3">
         <v>320</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60.75" thickBot="1">
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="60.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -547,8 +622,15 @@
       <c r="E6" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1">
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="30.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -564,8 +646,15 @@
       <c r="E7" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1">
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="45.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -581,8 +670,15 @@
       <c r="E8" s="3">
         <v>7.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60.75" thickBot="1">
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="60.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,10 +694,30 @@
       <c r="E9" s="3">
         <v>105</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
